--- a/backend/cypress/fixtures/test_workbooks/notes-to-sefa-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/notes-to-sefa-workbook.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.4</t>
+    <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -419,7 +419,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="XFD10" activeCellId="0" sqref="XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/cypress/fixtures/test_workbooks/notes-to-sefa-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/notes-to-sefa-workbook.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.5</t>
+    <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -419,7 +419,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="XFD10" activeCellId="0" sqref="XFD10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
